--- a/Test/deviceConfig_A.xlsx
+++ b/Test/deviceConfig_A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -480,6 +480,54 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>32 ℃</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021-06-06 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Serial</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T3292 </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
